--- a/biology/Médecine/Mathias-Marie_Duval/Mathias-Marie_Duval.xlsx
+++ b/biology/Médecine/Mathias-Marie_Duval/Mathias-Marie_Duval.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Mathias-Marie Duval, né le 7 février 1844 à Grasse et mort le 28 février 1907 à Paris 9e[1], est un professeur d'anatomie et d'histologie français. Il était le fils du botaniste Joseph Duval-Jouve (1810-1883).
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Mathias-Marie Duval, né le 7 février 1844 à Grasse et mort le 28 février 1907 à Paris 9e, est un professeur d'anatomie et d'histologie français. Il était le fils du botaniste Joseph Duval-Jouve (1810-1883).
 </t>
         </is>
       </c>
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Mathias-Marie Duval étudia la médecine à Paris. Il servit plus tard comme prosecteur à Strasbourg. En 1873, il obtint l'agrégation, il devint ensuite directeur du laboratoire d'anthropologie de l'École des Hautes Études à Paris, puis professeur d'anatomie à l'École Supérieure des Beaux-Arts. Il eut notamment pour élève le peintre et graveur suisse Pierre-Eugène Vibert. En 1885 il a remplacé Charles Philippe Robin (1821-1885) comme professeur d'histologie à la faculté de médecine. En 1892, il est devenu membre de l'Académie de Médecine.
 Mathias-Marie Duval entreprit des recherches sur les développements placentaires chez les souris et les rats. Il a été le premier à identifier l'invasion trophoblaste chez les rongeurs. Avec le gynécologue austro-américain Walter Schiller (1887-1960), il analyse les structures présentes dans les tumeurs endodermiques du sinus, qui seront dénommées les corps de Schiller Duval.
@@ -543,7 +557,9 @@
           <t>Travaux</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>1873 : Sur la structure et usages de la rétine. Thèse d'agrégation ;
 1873 : Manuel de microscopie ;
@@ -583,9 +599,11 @@
           <t>Œuvres</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Précis d’anatomie à l’usage des artistes, Paris, 1881, papier, en possession du Musée des beaux-arts et d'archéologie Joseph Dechelette, Roanne[2].</t>
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Précis d’anatomie à l’usage des artistes, Paris, 1881, papier, en possession du Musée des beaux-arts et d'archéologie Joseph Dechelette, Roanne.</t>
         </is>
       </c>
     </row>
